--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\API_TEST_FRAME\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4692AE3-507E-47A1-A97B-C978954F3035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929C2DC3-89BA-4135-AD33-300303F617EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -46,124 +46,135 @@
     <t>请求参数(get)</t>
   </si>
   <si>
-    <t>提交数据（post）</t>
+    <t>传值变量</t>
+  </si>
+  <si>
+    <t>期望结果类型</t>
+  </si>
+  <si>
+    <t>期望结果</t>
+  </si>
+  <si>
+    <t>case01</t>
+  </si>
+  <si>
+    <t>测试能否正确执行获取access_token接口</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>step_01</t>
+  </si>
+  <si>
+    <t>获取access_token接口</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/cgi-bin/token</t>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>json键是否存在</t>
+  </si>
+  <si>
+    <t>access_token,expires_in</t>
+  </si>
+  <si>
+    <t>case02</t>
+  </si>
+  <si>
+    <t>测试能否正确新增用户标签</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>json取值</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>$.access_token</t>
+  </si>
+  <si>
+    <t>正则匹配</t>
+  </si>
+  <si>
+    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
+  </si>
+  <si>
+    <t>step_02</t>
+  </si>
+  <si>
+    <t>创建标签接口</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/create</t>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "衡东8888"}}</t>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"衡东8888"}}</t>
+  </si>
+  <si>
+    <t>case03</t>
+  </si>
+  <si>
+    <t>测试能否正确删除用户标签</t>
+  </si>
+  <si>
+    <t>删除标签接口</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/delete</t>
+  </si>
+  <si>
+    <t>{"tag":{"id":408}}</t>
+  </si>
+  <si>
+    <t>json键值对</t>
+  </si>
+  <si>
+    <t>{"errcode":0,"errmsg":"ok"}</t>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.access_token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json取值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>取值方式</t>
-  </si>
-  <si>
-    <t>传值变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>取值代码</t>
-  </si>
-  <si>
-    <t>期望结果类型</t>
-  </si>
-  <si>
-    <t>期望结果</t>
-  </si>
-  <si>
-    <t>case01</t>
-  </si>
-  <si>
-    <t>测试能否正确执行获取access_token接口</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>step_01</t>
-  </si>
-  <si>
-    <t>获取access_token接口</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>/cgi-bin/token</t>
-  </si>
-  <si>
-    <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>json键是否存在</t>
-  </si>
-  <si>
-    <t>access_token,expires_in</t>
-  </si>
-  <si>
-    <t>case02</t>
-  </si>
-  <si>
-    <t>测试能否正确新增用户标签</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>json取值</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>$.access_token</t>
-  </si>
-  <si>
-    <t>正则匹配</t>
-  </si>
-  <si>
-    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
-  </si>
-  <si>
-    <t>step_02</t>
-  </si>
-  <si>
-    <t>创建标签接口</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/create</t>
-  </si>
-  <si>
-    <t>{"access_token":${token}}</t>
-  </si>
-  <si>
-    <t>{"tag" : {"name" : "衡东8888"}}</t>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"衡东8888"}}</t>
-  </si>
-  <si>
-    <t>case03</t>
-  </si>
-  <si>
-    <t>测试能否正确删除用户标签</t>
-  </si>
-  <si>
-    <t>删除标签接口</t>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/delete</t>
-  </si>
-  <si>
-    <t>{"tag":{"id":408}}</t>
-  </si>
-  <si>
-    <t>json键值对</t>
-  </si>
-  <si>
-    <t>{"errcode":0,"errmsg":"ok"}</t>
-  </si>
-  <si>
-    <t>{"access_token":${token}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交数据(post)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -223,10 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +246,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +531,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,13 +543,13 @@
     <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="10.4140625" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="10.4140625" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" customWidth="1"/>
     <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="14" max="14" width="37.9140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="37.9140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -560,211 +574,211 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="N6" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="H8" s="4"/>
+      <c r="H8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\API_TEST_FRAME\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929C2DC3-89BA-4135-AD33-300303F617EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC04323-C3A1-498D-AC7C-9FC6F44C69B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>json键是否存在</t>
   </si>
   <si>
-    <t>access_token,expires_in</t>
-  </si>
-  <si>
     <t>case02</t>
   </si>
   <si>
@@ -175,6 +172,10 @@
   </si>
   <si>
     <t>提交数据(post)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_token,expires_in</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -247,10 +248,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +578,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>47</v>
+      <c r="I1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
@@ -627,19 +628,19 @@
       <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -656,62 +657,62 @@
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>46</v>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
@@ -730,51 +731,51 @@
         <v>18</v>
       </c>
       <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
         <v>40</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">

--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\API_TEST_FRAME\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC04323-C3A1-498D-AC7C-9FC6F44C69B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79215F0-9763-466C-8BF0-18601D70D671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -49,150 +49,266 @@
     <t>传值变量</t>
   </si>
   <si>
+    <t>期望结果</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>json键是否存在</t>
+  </si>
+  <si>
+    <t>json取值</t>
+  </si>
+  <si>
+    <t>正则匹配</t>
+  </si>
+  <si>
+    <t>step_02</t>
+  </si>
+  <si>
+    <t>创建标签接口</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/create</t>
+  </si>
+  <si>
+    <t>json键值对</t>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交数据(post)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_token,expires_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>期望结果类型</t>
-  </si>
-  <si>
-    <t>期望结果</t>
-  </si>
-  <si>
-    <t>case01</t>
-  </si>
-  <si>
-    <t>测试能否正确执行获取access_token接口</t>
-  </si>
-  <si>
-    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>step_01</t>
-  </si>
-  <si>
-    <t>获取access_token接口</t>
-  </si>
-  <si>
-    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_VXAPI_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_VXAPI_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_VXAPI_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_VXAPI_004</t>
+  </si>
+  <si>
+    <t>Test_VXAPI_005</t>
+  </si>
+  <si>
+    <t>Test_VXAPI_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wxec83eaada223a9c8","secret":"1867d7f1cabb3bafae0b7304e8251a09"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证获取access_token接口能否正常执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Access token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/cgi-bin/token</t>
-  </si>
-  <si>
-    <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
-  </si>
-  <si>
-    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证获取access_token接口appid错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wxec83eaada2","secret":"1867d7f1cabb3bafae0b7304e8251a09"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errcode":40013}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证获取access_token接口secret错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wxec83eaada223a9c8","secret":"1867d7f1cfae0b7304e8251a09"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证创建标签接口能否成功执行</t>
+  </si>
+  <si>
+    <t>json键值对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errcode":(.+?)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>json键是否存在</t>
-  </si>
-  <si>
-    <t>case02</t>
-  </si>
-  <si>
-    <t>测试能否正确新增用户标签</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>json取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Access token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wxec83eaada223a9c8","secret":"1867d7f1cabb3bafae0b7304e8251a09"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>$.access_token</t>
-  </si>
-  <si>
-    <t>正则匹配</t>
-  </si>
-  <si>
-    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
-  </si>
-  <si>
-    <t>step_02</t>
-  </si>
-  <si>
-    <t>创建标签接口</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/create</t>
-  </si>
-  <si>
-    <t>{"access_token":${token}}</t>
-  </si>
-  <si>
-    <t>{"tag" : {"name" : "衡东8888"}}</t>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"衡东8888"}}</t>
-  </si>
-  <si>
-    <t>case03</t>
-  </si>
-  <si>
-    <t>测试能否正确删除用户标签</t>
-  </si>
-  <si>
-    <t>删除标签接口</t>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/delete</t>
-  </si>
-  <si>
-    <t>{"tag":{"id":408}}</t>
-  </si>
-  <si>
-    <t>json键值对</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_token,expires_in</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"fasd7"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "fasd7"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证创建标签接口重复标签名创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errcode":45157}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证创建标签接口标签名超过30个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "sdfhkjasdjfhkjasdfhjaklsdfhlajksdfhklasjdfhjklsdfhkjlasdfhkhasdfkjashdkflhdsjkfhasjkdfhasjkdfh"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errcode":45158}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_VXAPI_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证获取标签接口能否成功执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取公众号已创建的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_VXAPI_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证编辑标签接口能否成功执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"errcode":0,"errmsg":"ok"}</t>
-  </si>
-  <si>
-    <t>{"access_token":${token}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.access_token</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>json取值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取值方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取值代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交数据(post)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>access_token,expires_in</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"tag" : {"id":109,"name":"fjsjadd" } } </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_VXAPI_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证编辑标签接口名称重复能否执行成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errcode":45157}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -212,6 +328,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,7 +367,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -229,34 +375,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{98813FFA-4F12-469F-B8B7-03472049DA75}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -529,28 +718,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="35.08203125" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.4140625" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="10.4140625" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" customWidth="1"/>
     <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="14" max="14" width="37.9140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="46.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -578,230 +767,566 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>46</v>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="N12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="M14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="4" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="G15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="H8" s="3"/>
+      <c r="N15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A3:A4"/>
+  <mergeCells count="18">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"get,post"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J4 J5:J6" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J15" xr:uid="{FA016501-3447-447C-9F40-EA8D46CD4121}">
       <formula1>"无,正则取值,json取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M15" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C3" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C7 C9 C11 C13" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\API_TEST_FRAME\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79215F0-9763-466C-8BF0-18601D70D671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508FB669-557A-443B-AECF-9949AFB79939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"tag":{"id":(.+?),"name":"fasd7"}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{"tag" : {"name" : "fasd7"}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -300,6 +296,18 @@
   <si>
     <t>{"errcode":45157}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"tag" : {"id":110,"name":"ffaswhello1" } } </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "ffaswhello2"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"ffaswhello2"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,29 +426,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -721,7 +729,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,13 +900,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -933,9 +941,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
@@ -951,8 +959,8 @@
       <c r="H6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>56</v>
+      <c r="I6" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>12</v>
@@ -960,18 +968,18 @@
       <c r="M6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>55</v>
+      <c r="N6" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1006,9 +1014,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1025,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>12</v>
@@ -1034,17 +1042,17 @@
         <v>20</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1079,9 +1087,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>12</v>
@@ -1107,17 +1115,17 @@
         <v>20</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1152,20 +1160,20 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>46</v>
@@ -1177,17 +1185,17 @@
         <v>47</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1222,26 +1230,26 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>72</v>
+      <c r="I14" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>12</v>
@@ -1250,34 +1258,34 @@
         <v>20</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>72</v>
+      <c r="I15" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>12</v>
@@ -1286,22 +1294,19 @@
         <v>20</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -1311,9 +1316,12 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
